--- a/groupProject2Part2.xlsx
+++ b/groupProject2Part2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e41580a8ecfa9755/Documents/GitHub/Math248/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34189ABB-2494-44BE-9259-C4968E81809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{34189ABB-2494-44BE-9259-C4968E81809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{334DEBA8-9ABE-47E4-A8CF-A868D29818D1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7FA50CDD-8D91-490B-982F-B45FAB9F108C}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,6 +457,18 @@
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2">
+        <f>1/((B3-B2)/(A3-A2))*3600</f>
+        <v>39.164490861618795</v>
+      </c>
+      <c r="D2">
+        <f>1/((B4-B2)/(A4-A2))*3600</f>
+        <v>38.111369892017791</v>
+      </c>
+      <c r="E2">
+        <f>2*C3-D2</f>
+        <v>36.115434231693555</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -466,8 +478,16 @@
         <v>22.98</v>
       </c>
       <c r="C3">
-        <f>1/((B3-B2)/(A3-A2))*3600</f>
-        <v>39.164490861618795</v>
+        <f>1/((B4-B3)/(A4-A3))*3600</f>
+        <v>37.113402061855673</v>
+      </c>
+      <c r="D3">
+        <f>1/((B5-B3)/(A5-A3))*3600</f>
+        <v>36.652412950519242</v>
+      </c>
+      <c r="E3">
+        <f>2*C4-D3</f>
+        <v>35.75305768503987</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -478,16 +498,16 @@
         <v>47.23</v>
       </c>
       <c r="C4">
-        <f>1/((B4-B3)/(A4-A3))*3600</f>
-        <v>37.113402061855673</v>
+        <f>1/((B5-B4)/(A5-A4))*3600</f>
+        <v>36.202735317779556</v>
       </c>
       <c r="D4">
-        <f>1/((B4-B2)/(A4-A2))*3600</f>
-        <v>38.111369892017791</v>
+        <f>1/((B6-B4)/(A6-A4))*3600</f>
+        <v>35.813768404297655</v>
       </c>
       <c r="E4">
-        <f>2*C4-D4</f>
-        <v>36.115434231693555</v>
+        <f>2*C5-D4</f>
+        <v>35.05237332798584</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -498,16 +518,16 @@
         <v>72.09</v>
       </c>
       <c r="C5">
-        <f>1/((B5-B4)/(A5-A4))*3600</f>
-        <v>36.202735317779556</v>
+        <f>1/((B6-B5)/(A6-A5))*3600</f>
+        <v>35.433070866141748</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D7" si="0">1/((B5-B3)/(A5-A3))*3600</f>
-        <v>36.652412950519242</v>
+        <f>1/((B7-B5)/(A7-A5))*3600</f>
+        <v>35.594225825588296</v>
       </c>
       <c r="E5">
-        <f>2*C5-D5</f>
-        <v>35.75305768503987</v>
+        <f>2*C6-D5</f>
+        <v>35.919480968213847</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -518,16 +538,8 @@
         <v>97.49</v>
       </c>
       <c r="C6">
-        <f>1/((B6-B5)/(A6-A5))*3600</f>
-        <v>35.433070866141748</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>35.813768404297655</v>
-      </c>
-      <c r="E6">
-        <f>2*C6-D6</f>
-        <v>35.05237332798584</v>
+        <f>1/((B7-B6)/(A7-A6))*3600</f>
+        <v>35.756853396901072</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -536,18 +548,6 @@
       </c>
       <c r="B7">
         <v>122.66</v>
-      </c>
-      <c r="C7">
-        <f>1/((B7-B6)/(A7-A6))*3600</f>
-        <v>35.756853396901072</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>35.594225825588296</v>
-      </c>
-      <c r="E7">
-        <f>2*C7-D7</f>
-        <v>35.919480968213847</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
